--- a/pred_ohlcv/54_21/2020-01-20 PLY ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 PLY ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>-1704043.3688</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-2015249.8347</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-2026408.8347</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-2026408.8347</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-2207901.5388</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-2204847.4387</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-2597949.4109</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-2232119.4109</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-2193919.4109</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-2185986.9606</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-2193919.4109</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-2501621.3289</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-2501620.3289</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-2685145.014</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-2875850.3289</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-2825726.5707</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-2825726.5707</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-2825726.5707</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-2825726.5707</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-2825726.5707</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-2825726.5707</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-3914956.9185</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-3945211.7005</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-4027396.5376</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-9334808.127300002</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-9528138.956799999</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-10060485.5533</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-11362329.7079</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-11416074.7955</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-11416117.30829999</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-13324118.1645</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-12621897.7035</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-12617668.984</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-12592040.3814</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-12592040.3814</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-20 PLY ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 PLY ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>-2015249.8347</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-2026408.8347</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-2026408.8347</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-2207901.5388</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-2204847.4387</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-2374114.2511</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-2594114.2511</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-2597949.4109</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-2232119.4109</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-2231919.4109</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-2231919.4109</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-2193919.4109</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-2185986.9606</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-2193919.4109</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-2188684.1214</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-2307144.6644</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-2501620.3289</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-2685145.014</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-2875850.3289</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-2507709.0751</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-2436709.0751</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-2436709.0751</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-2437825.6407</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-2439506.7868</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-2439381.7868</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-3914956.9185</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-3945211.7005</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-4027396.5376</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-9334808.127300002</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-9528138.956799999</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-10060485.5533</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-11362329.7079</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-11416074.7955</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-11416117.30829999</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-13253403.1867</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-13324118.1645</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-12621897.7035</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-12621897.7035</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-12625357.5648</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-12617668.984</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-12592040.3814</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-12592040.3814</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
